--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20242.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -103,196 +103,13 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>LOYO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SANDRIA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>JAIMES</t>
-  </si>
-  <si>
-    <t>SOSA</t>
-  </si>
-  <si>
-    <t>CHAPARRO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>MONFIL</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>BARROSO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>LUZ ELENA</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>EUNICE GUADALUPE</t>
-  </si>
-  <si>
-    <t>ANGEL ISMAEL</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>MAYKA XIMENA</t>
-  </si>
-  <si>
-    <t>BERNARDINA</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>EMIRETH</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
-  </si>
-  <si>
-    <t>MARELY</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>DORIAN</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>ADAMARI</t>
-  </si>
-  <si>
-    <t>DAFNE</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>PAOLA MELANIE</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>PAULA ODETTE</t>
-  </si>
-  <si>
-    <t>ABRIL LUCIA</t>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>ZOPILLAXTLE</t>
+  </si>
+  <si>
+    <t>LUZ ARIANA</t>
   </si>
 </sst>
 </file>
@@ -823,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -832,13 +649,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1024,16 +835,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>94.44</v>
+      </c>
+      <c r="H2">
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1047,16 +861,19 @@
         <v>39</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>39</v>
       </c>
-      <c r="E3">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1070,16 +887,19 @@
         <v>39</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>39</v>
       </c>
-      <c r="E4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1093,16 +913,19 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>97.37</v>
+      </c>
+      <c r="H5">
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1116,16 +939,19 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>96.43000000000001</v>
+      </c>
+      <c r="H6">
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1136,18 +962,15 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -1162,16 +985,19 @@
         <v>23</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>7.4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1185,16 +1011,19 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>93.33</v>
+      </c>
+      <c r="H9">
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1208,16 +1037,19 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1231,16 +1063,19 @@
         <v>15</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>7.7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1254,16 +1089,19 @@
         <v>24</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>24</v>
       </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1169,7 @@
         <v>94.44</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1357,7 +1195,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1383,7 +1221,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1409,7 +1247,7 @@
         <v>97.37</v>
       </c>
       <c r="H5">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1426,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>71.43000000000001</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="H6">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1446,18 +1284,15 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -1475,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>91.3</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1501,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>93.33</v>
       </c>
       <c r="H9">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1527,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>90.91</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1553,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1588,7 +1423,7 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1633,623 +1468,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920244</v>
+        <v>24330051920201</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24330051920243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>24330051920226</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24330051920239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24330051920366</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920240</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>24330051920220</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24330051920232</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>24330051920242</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>24330051920242</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24330051920396</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920408</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>24330051920229</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920228</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>23330051920213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>23330051920207</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>24330051920219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>24330051920221</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>24330051920222</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>24330051920224</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>24330051920357</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>24330051920230</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24330051920231</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24330051920317</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>24330051920249</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>24330051920397</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20242.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>Mat</t>
   </si>
@@ -103,13 +103,31 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
     <t>SOTO</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>ZOPILLAXTLE</t>
   </si>
   <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>AYLIN ABIGAIL</t>
+  </si>
+  <si>
     <t>LUZ ARIANA</t>
+  </si>
+  <si>
+    <t>ELIZABETH MADAI</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1468,16 +1486,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920201</v>
+        <v>24330051920187</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1487,6 +1505,52 @@
       </c>
       <c r="G2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>24330051920201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>24330051920398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20242.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
   <si>
     <t>Mat</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Formación socioemocional II</t>
+  </si>
+  <si>
+    <t>Ingles II</t>
   </si>
   <si>
     <t>PROMUEVE CONDICIONES DE TRABAJO SALUDABLES EN LA ORGANIZACIÓN</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -551,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -577,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -603,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>38</v>
@@ -629,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -655,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -675,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -701,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -727,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -756,22 +759,22 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>90.91</v>
       </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,21 +785,47 @@
         <v>21</v>
       </c>
       <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+      <c r="H12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>24</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>100</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -807,7 +836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -873,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -899,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -925,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>38</v>
@@ -951,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -977,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -997,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -1023,7 +1052,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -1049,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1078,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1087,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1104,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1113,12 +1142,38 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -1129,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1169,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -1195,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -1221,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -1247,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>38</v>
@@ -1273,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -1299,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1319,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -1345,7 +1400,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -1371,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1400,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1409,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1426,7 +1481,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1435,12 +1490,38 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
         <v>9</v>
       </c>
     </row>
@@ -1463,25 +1544,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1489,19 +1570,19 @@
         <v>24330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1512,19 +1593,19 @@
         <v>24330051920201</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1535,19 +1616,19 @@
         <v>24330051920398</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
